--- a/Matrix multiplication tensor, naive algorithm.xlsx
+++ b/Matrix multiplication tensor, naive algorithm.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d661cc535043b6a8/Documents/Nancy Polytech/4A/Semester Spring/Optimization/Matrix-multiplication/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{35F111A4-CA4E-4E07-B342-1B3DA3786DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16110575-CA51-4B6D-A0EC-52C28327E079}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{35F111A4-CA4E-4E07-B342-1B3DA3786DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C0C978-70C6-4BBA-BFE3-422AFB2194F2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{3BFA9F74-2462-4750-9845-623A58D4E54D}"/>
   </bookViews>
@@ -240,26 +235,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,6 +276,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,34 +596,34 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -633,32 +631,32 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -666,32 +664,32 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -699,32 +697,32 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -737,34 +735,34 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -772,32 +770,32 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -805,62 +803,62 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -873,34 +871,34 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -908,32 +906,32 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -941,62 +939,62 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1012,5 +1010,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>